--- a/dados/dados_xlsx.xlsx
+++ b/dados/dados_xlsx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,6 +365,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rep</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>y</t>
         </is>
       </c>
@@ -376,6 +381,9 @@
         </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>23</v>
       </c>
     </row>
@@ -386,6 +394,9 @@
         </is>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>21</v>
       </c>
     </row>
@@ -396,6 +407,9 @@
         </is>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>26</v>
       </c>
     </row>
@@ -406,6 +420,9 @@
         </is>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>20</v>
       </c>
     </row>
@@ -416,6 +433,9 @@
         </is>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>22</v>
       </c>
     </row>
@@ -426,6 +446,9 @@
         </is>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>28</v>
       </c>
     </row>
@@ -436,6 +459,9 @@
         </is>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>23</v>
       </c>
     </row>
@@ -446,6 +472,9 @@
         </is>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>22</v>
       </c>
     </row>
@@ -456,6 +485,9 @@
         </is>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>22</v>
       </c>
     </row>
@@ -466,6 +498,9 @@
         </is>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>19</v>
       </c>
     </row>
@@ -476,6 +511,9 @@
         </is>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>23</v>
       </c>
     </row>
@@ -486,6 +524,9 @@
         </is>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>24</v>
       </c>
     </row>
@@ -496,6 +537,9 @@
         </is>
       </c>
       <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>25</v>
       </c>
     </row>
@@ -506,6 +550,9 @@
         </is>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>21</v>
       </c>
     </row>
@@ -516,6 +563,9 @@
         </is>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>22</v>
       </c>
     </row>
@@ -526,6 +576,9 @@
         </is>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>20</v>
       </c>
     </row>
@@ -536,6 +589,9 @@
         </is>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>19</v>
       </c>
     </row>
@@ -546,6 +602,9 @@
         </is>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>21</v>
       </c>
     </row>
@@ -556,6 +615,9 @@
         </is>
       </c>
       <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>23</v>
       </c>
     </row>
@@ -566,6 +628,9 @@
         </is>
       </c>
       <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
         <v>22</v>
       </c>
     </row>
@@ -576,6 +641,9 @@
         </is>
       </c>
       <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>22</v>
       </c>
     </row>
@@ -586,6 +654,9 @@
         </is>
       </c>
       <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>22</v>
       </c>
     </row>
@@ -596,6 +667,9 @@
         </is>
       </c>
       <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
     </row>
@@ -606,6 +680,9 @@
         </is>
       </c>
       <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>21</v>
       </c>
     </row>
@@ -616,6 +693,9 @@
         </is>
       </c>
       <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>23</v>
       </c>
     </row>
@@ -626,6 +706,9 @@
         </is>
       </c>
       <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
         <v>24</v>
       </c>
     </row>
@@ -636,6 +719,9 @@
         </is>
       </c>
       <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
         <v>23</v>
       </c>
     </row>
@@ -646,6 +732,9 @@
         </is>
       </c>
       <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
         <v>25</v>
       </c>
     </row>
@@ -656,6 +745,9 @@
         </is>
       </c>
       <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
         <v>26</v>
       </c>
     </row>
@@ -666,6 +758,9 @@
         </is>
       </c>
       <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
         <v>28</v>
       </c>
     </row>
@@ -676,6 +771,9 @@
         </is>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>43</v>
       </c>
     </row>
@@ -686,6 +784,9 @@
         </is>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>41</v>
       </c>
     </row>
@@ -696,6 +797,9 @@
         </is>
       </c>
       <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>44</v>
       </c>
     </row>
@@ -706,6 +810,9 @@
         </is>
       </c>
       <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <v>48</v>
       </c>
     </row>
@@ -716,6 +823,9 @@
         </is>
       </c>
       <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
         <v>43</v>
       </c>
     </row>
@@ -726,6 +836,9 @@
         </is>
       </c>
       <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>41</v>
       </c>
     </row>
@@ -736,6 +849,9 @@
         </is>
       </c>
       <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <v>41</v>
       </c>
     </row>
@@ -746,6 +862,9 @@
         </is>
       </c>
       <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
         <v>43</v>
       </c>
     </row>
@@ -756,6 +875,9 @@
         </is>
       </c>
       <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
         <v>42</v>
       </c>
     </row>
@@ -766,6 +888,9 @@
         </is>
       </c>
       <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
         <v>43</v>
       </c>
     </row>
@@ -776,6 +901,9 @@
         </is>
       </c>
       <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
         <v>39</v>
       </c>
     </row>
@@ -786,6 +914,9 @@
         </is>
       </c>
       <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
         <v>41</v>
       </c>
     </row>
@@ -796,6 +927,9 @@
         </is>
       </c>
       <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
         <v>45</v>
       </c>
     </row>
@@ -806,6 +940,9 @@
         </is>
       </c>
       <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
         <v>46</v>
       </c>
     </row>
@@ -816,6 +953,9 @@
         </is>
       </c>
       <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
         <v>41</v>
       </c>
     </row>
